--- a/medicine/Enfance/Gregory_Maguire/Gregory_Maguire.xlsx
+++ b/medicine/Enfance/Gregory_Maguire/Gregory_Maguire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gregory Maguire, né le 9 juin 1954 à Albany dans l'État de New York, est un auteur américain.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gregory Maguire est l'auteur de Wicked : La Véritable Histoire de la méchante sorcière de l'Ouest (Wicked: The Life and Times of the Wicked Witch of the West), Les Petites Sorcières (Confessions of an Ugly Stepsister) et de nombreux autres romans, aussi bien pour adultes que pour la jeunesse. Beaucoup des romans de Gregory Maguire à destination des adultes revisitent des univers conçus à l'origine pour les enfants. Par exemple, Wicked présente le pays d'Oz sous un angle différent, où la méchante sorcière de l'Ouest devient un personnage sympathique, Elphaba, opprimée par la société et à laquelle s'identifie le lecteur. Wicked a été adapté en comédie musicale l'année de sa parution et a connu un succès remarquable aux États-Unis. Sa suite, Son of a Witch, paraît en 2005 aux États-Unis.
 Maguire passe son doctorat en littérature anglaise et américaine à la Tufts University. Il est professeur et codirecteur à Simmons College Center pour l'étude de la littérature de jeunesse de 1979 à 1985. En 1987, il cofonde le Children's Literature New England dont il est actuellement codirecteur, bien que l'organisation ait annoncé son intention de fermer. 
 Il est marié au peintre Andy Newman, avec qui il a adopté trois enfants.
-Dans son livre Confessions of an ugly stepsister, qui se passe au siècle d'or hollandais à Haarlem, Gregory Maguire nous fait découvrir le boerenkoffie[1],[2].
+Dans son livre Confessions of an ugly stepsister, qui se passe au siècle d'or hollandais à Haarlem, Gregory Maguire nous fait découvrir le boerenkoffie,.
 </t>
         </is>
       </c>
@@ -547,26 +561,140 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Hamlet Chronicles
-(en) Seven Spiders Spinning, 1994
+          <t>Série Hamlet Chronicles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Seven Spiders Spinning, 1994
 (en) Five Alien Elves, 1998
 (en) Six Haunted Hairdos, 1999
 (en) Four Stupid Cupids, 2000
 (en) Three Rotten Eggs, 2002
 (en) A Couple of April Fools, 2004
-(en) One Final Firecracker, 2005
-Univers Pays d'Oz
-Série Wicked
-Wicked : La Véritable Histoire de la méchante sorcière de l'Ouest, Bragelonne, 2011 ((en) Wicked: The Life and Times of the Wicked Witch of the West, 1995)
+(en) One Final Firecracker, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gregory_Maguire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gregory_Maguire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers Pays d'Oz</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Wicked</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Wicked : La Véritable Histoire de la méchante sorcière de l'Ouest, Bragelonne, 2011 ((en) Wicked: The Life and Times of the Wicked Witch of the West, 1995)
 Son of a Witch : La Véritable Suite de Wicked, Bragelonne, 2022 ((en) Son of a Witch, 2005)
 (en) A Lion Among Men, 2008
-(en) Out of Oz, 2011
-Série Another Day
-(en) The Brides of Maracoor, 2021
+(en) Out of Oz, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gregory_Maguire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gregory_Maguire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Univers Pays d'Oz</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Another Day</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Brides of Maracoor, 2021
 (en) The Oracle of Maracoor, 2022
-(en) The Witch of Maracoor, 2023
-Romans indépendants
-(en) The Lightning Time, 1978
+(en) The Witch of Maracoor, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gregory_Maguire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gregory_Maguire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) The Lightning Time, 1978
 (en) The Daughter of the Moon, 1980
 (en) Lights on the Lake, 1981
 (en) The Dream Stealer, 1983
@@ -587,11 +715,79 @@
 (en) After Alice, 2015
 (en) Hiddensee, 2017
 (en) A Wild Winter Swan, 2020
-(en) Cress Watercress, 2022
-Recueil de nouvelles
-(en) Leaping Beauty and Other Animal Fairy Tales, 2004
-Nouvelles
-(en) The Honorary ShepherdsParue dans Am I Blue?: Coming Out From the Silence, recueil de nouvelles pour adolescents gays et lesbiens en 1995
+(en) Cress Watercress, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gregory_Maguire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gregory_Maguire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Leaping Beauty and Other Animal Fairy Tales, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gregory_Maguire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gregory_Maguire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) The Honorary ShepherdsParue dans Am I Blue?: Coming Out From the Silence, recueil de nouvelles pour adolescents gays et lesbiens en 1995
 (en) Beyond the FringeParue dans A Glory of Unicorns, réuni par Bruce Coville en 1998</t>
         </is>
       </c>
